--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LFP_Module\K9HZ_LPF_V1.00_BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8724FD7C-F3D1-4935-AA62-FD41A524851E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8135943D-06DC-4C70-BC13-2F7A19655FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,9 +421,6 @@
     <t>584-AD8307ARZ-R7</t>
   </si>
   <si>
-    <t>70-ILSB1206ER220K</t>
-  </si>
-  <si>
     <t>81-1264EY-100MP3</t>
   </si>
   <si>
@@ -445,9 +442,6 @@
     <t>A-1304</t>
   </si>
   <si>
-    <t>22uH SMD 1206 Inductor</t>
-  </si>
-  <si>
     <t>10uH 20% Power Inductor</t>
   </si>
   <si>
@@ -479,6 +473,12 @@
   </si>
   <si>
     <t>71-CRCW1206-52.3-E3</t>
+  </si>
+  <si>
+    <t>22nH SMD 1206 Inductor</t>
+  </si>
+  <si>
+    <t>815-AISC-1206-22NJ-T</t>
   </si>
 </sst>
 </file>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1540,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1554,7 +1554,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1607,13 +1607,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1663,13 +1663,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1691,13 +1691,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1719,13 +1719,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1761,10 +1761,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1831,7 +1831,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
         <v>105</v>
@@ -1845,7 +1845,7 @@
         <v>127</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
         <v>126</v>
@@ -1859,10 +1859,10 @@
         <v>103</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1873,7 +1873,7 @@
         <v>125</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>124</v>
@@ -1884,13 +1884,13 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">

--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8135943D-06DC-4C70-BC13-2F7A19655FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70418BC2-55C3-4297-9EE2-7039A5C56924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
   <si>
     <t>Qty</t>
   </si>
@@ -31,9 +31,6 @@
     <t>0.1uF 50V</t>
   </si>
   <si>
-    <t>C14, C16</t>
-  </si>
-  <si>
     <t>1900pF 50V</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>80-C1206C162K3HACTU</t>
   </si>
   <si>
-    <t>Add to above C14, C16</t>
-  </si>
-  <si>
     <t>538-39880-4302</t>
   </si>
   <si>
@@ -479,6 +473,18 @@
   </si>
   <si>
     <t>815-AISC-1206-22NJ-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>C14A, C16A</t>
+  </si>
+  <si>
+    <t>C14B, C16B</t>
+  </si>
+  <si>
+    <t>C14 = C14A+C14B,      C16 = C16A+C16B</t>
   </si>
 </sst>
 </file>
@@ -642,7 +648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,6 +826,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -983,7 +995,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1004,6 +1016,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1360,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1382,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1417,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1425,13 +1444,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1439,13 +1458,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1453,13 +1472,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1467,94 +1486,91 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>81</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1562,58 +1578,58 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" s="6">
-        <v>3.35</v>
+        <v>61</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>139</v>
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3.35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1621,13 +1637,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>79</v>
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1635,55 +1651,55 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>96</v>
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>135</v>
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1691,27 +1707,27 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1719,13 +1735,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>133</v>
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1733,13 +1749,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1747,24 +1763,27 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>142</v>
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1772,55 +1791,52 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1828,27 +1844,27 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+      <c r="A33" s="1">
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1856,27 +1872,27 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>124</v>
+      <c r="D35" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1884,111 +1900,111 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>1</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="D42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1996,41 +2012,41 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="8">
         <v>2</v>
       </c>
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="D45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -2038,13 +2054,13 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -2052,13 +2068,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -2066,13 +2082,13 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -2080,13 +2096,27 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
         <v>58</v>
       </c>
-      <c r="D50" t="s">
-        <v>117</v>
+      <c r="C51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70418BC2-55C3-4297-9EE2-7039A5C56924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD6E96-4894-4206-AAC9-5BD3DC424C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD6E96-4894-4206-AAC9-5BD3DC424C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5E47BB-17FD-4528-95F0-0D9BC7EBB83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="T41-WJS-10-band-LPF-control" sheetId="1" r:id="rId1"/>
+    <sheet name="Read Me" sheetId="8" r:id="rId1"/>
+    <sheet name="All LPF Control Board Parts" sheetId="1" r:id="rId2"/>
+    <sheet name="Base Control Board Parts" sheetId="2" r:id="rId3"/>
+    <sheet name="1.8MHz HPF Option" sheetId="3" r:id="rId4"/>
+    <sheet name="Diode Detector Option" sheetId="4" r:id="rId5"/>
+    <sheet name="LogAmp Detector Option" sheetId="5" r:id="rId6"/>
+    <sheet name="Digital Power Report" sheetId="6" r:id="rId7"/>
+    <sheet name="Analog Power Report" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="190">
   <si>
     <t>Qty</t>
   </si>
@@ -31,9 +38,6 @@
     <t>0.1uF 50V</t>
   </si>
   <si>
-    <t>1900pF 50V</t>
-  </si>
-  <si>
     <t>C15</t>
   </si>
   <si>
@@ -478,13 +482,264 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>C14A, C16A</t>
-  </si>
-  <si>
-    <t>C14B, C16B</t>
-  </si>
-  <si>
-    <t>C14 = C14A+C14B,      C16 = C16A+C16B</t>
+    <t>300 pF 50V</t>
+  </si>
+  <si>
+    <t>1600 pF 50V</t>
+  </si>
+  <si>
+    <t>C14, C16</t>
+  </si>
+  <si>
+    <t>C24, C25</t>
+  </si>
+  <si>
+    <t>C149, C156</t>
+  </si>
+  <si>
+    <t>R26, R29</t>
+  </si>
+  <si>
+    <t>R20, R28</t>
+  </si>
+  <si>
+    <t>C144, C155</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R13, R21</t>
+  </si>
+  <si>
+    <t>BOM for the K9HZ 11-Band Low Pass Filter - Control Board</t>
+  </si>
+  <si>
+    <t>The following spread sheets are used to order parts for building the LPF Control Board</t>
+  </si>
+  <si>
+    <t>There are options that you can populate on the control board to give added functionality</t>
+  </si>
+  <si>
+    <t>the instruction below to select the options you want, then order the base parts plus</t>
+  </si>
+  <si>
+    <t>just the parts for the options you have selected.  See the build instructions for more information.</t>
+  </si>
+  <si>
+    <t>DO NOT order all parts from the "All LPF Control Board Parts" sheet.   It's FYI.  Instead, follow</t>
+  </si>
+  <si>
+    <t>Do you want the 1.8MHz HP Filter?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>those parts on the control board per the build instructions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  those parts on the control board per the build instructions.</t>
+  </si>
+  <si>
+    <t>Follow the build instructions to bypass this option.</t>
+  </si>
+  <si>
+    <t>Do you want Power/ SWR measurement?</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Do you want to use Diode Detection or the Log Amp Detection?</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>Log Amp</t>
+  </si>
+  <si>
+    <r>
+      <t>Order the parts on the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LogAmp Detector sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and populate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Order the parts on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diode Detector sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and populate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Order the parts on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.8MHz HPF Options sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and populate</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you want to digitize the resulting power measurement and send it</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the build instructions to install R23 and R30 and output the </t>
+  </si>
+  <si>
+    <t>analog voltages through J21 to the processor or other readout device.</t>
+  </si>
+  <si>
+    <t>to the processor in Analog form or in Digital form via I2C?</t>
+  </si>
+  <si>
+    <t>Digitally</t>
+  </si>
+  <si>
+    <t>them on the control board per the build instructions.</t>
+  </si>
+  <si>
+    <r>
+      <t>Order the parts on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Digital Power Report sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and populate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Order the parts from the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Base Control Board Parts sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -494,7 +749,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,8 +902,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,12 +1128,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -995,7 +1289,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1017,13 +1311,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1378,11 +1679,452 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DB5B33-402C-458D-98E1-C19762AA7CB2}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E3" sqref="B1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="2.453125" customWidth="1"/>
+    <col min="4" max="4" width="3.90625" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+    <col min="6" max="6" width="36.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13">
+        <v>3</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" ht="9.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" ht="6.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E27" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F28" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E29" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F30" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1401,28 +2143,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1436,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1444,13 +2186,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1458,13 +2200,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1472,13 +2214,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1486,91 +2228,97 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D7" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="C8" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>92</v>
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1578,58 +2326,58 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="6">
+        <v>3.35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="6">
-        <v>3.35</v>
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1637,13 +2385,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>137</v>
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1651,55 +2399,55 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G20" t="s">
-        <v>94</v>
+      <c r="D20" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1707,27 +2455,27 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D23" t="s">
-        <v>150</v>
+      <c r="G23" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1735,13 +2483,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G24" t="s">
-        <v>98</v>
+      <c r="D24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1749,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1763,27 +2511,24 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1791,29 +2536,32 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>140</v>
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>64</v>
@@ -1822,21 +2570,21 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1844,27 +2592,27 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33" s="8">
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1872,27 +2620,27 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1900,111 +2648,111 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="8">
+      <c r="A37" s="1">
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>147</v>
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="8">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="A43" s="8">
         <v>1</v>
       </c>
       <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -2012,10 +2760,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D44" t="s">
         <v>127</v>
@@ -2023,30 +2771,30 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="8">
-        <v>2</v>
+      <c r="A46" s="1">
+        <v>1</v>
       </c>
       <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -2054,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -2068,13 +2816,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -2082,10 +2830,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D49" t="s">
         <v>113</v>
@@ -2096,31 +2844,2771 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA2ABC-0813-474E-AEBD-F41F9497E75F}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE971F73-8980-4F97-ADFD-8359F41C9F3B}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593324E1-40E9-4B63-B206-4780EA264F05}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6500391-22D1-4B8B-8FA4-0C4B2D382E2C}">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA54DF9-79F0-4A89-B6EB-607290A85147}">
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ECCDDF-1CE7-454A-B3D3-78AD920F2C78}">
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA609575-6189-40EB-BF21-AB74F07A18B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9413034-099A-4EB2-8EA0-5C0FE55E7BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="200">
   <si>
     <t>Qty</t>
   </si>
@@ -122,9 +122,6 @@
     <t>R8, R9, R10, R11, R23, R30</t>
   </si>
   <si>
-    <t>R12, R14</t>
-  </si>
-  <si>
     <t>R13, R20, R21, R28</t>
   </si>
   <si>
@@ -221,12 +218,6 @@
     <t>0 Ohm SMD 1206 Resistor</t>
   </si>
   <si>
-    <t>3.3K Ohm SMD 1206 Resistor</t>
-  </si>
-  <si>
-    <t>3.9K Ohm SMD 1206 Resistor</t>
-  </si>
-  <si>
     <t>10K Ohm SMD 1206 Resistor</t>
   </si>
   <si>
@@ -335,9 +326,6 @@
     <t>71-CRCW1206-10K-E3</t>
   </si>
   <si>
-    <t>603-RC1206FR-073K9L</t>
-  </si>
-  <si>
     <t>937-MASWSS0179-T</t>
   </si>
   <si>
@@ -386,9 +374,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>652-CR1206FX-3301ELF</t>
-  </si>
-  <si>
     <t>2N7000-D26Z</t>
   </si>
   <si>
@@ -441,9 +426,6 @@
   </si>
   <si>
     <t>10uH 20% Power Inductor</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R15</t>
   </si>
   <si>
     <t>R4, R5, R6</t>
@@ -777,6 +759,18 @@
   <si>
     <t>L37</t>
   </si>
+  <si>
+    <t>2.2K Ohm SMD 1206 Resistor</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R12, R14, R15</t>
+  </si>
+  <si>
+    <t>652-CR1206JW-222ELF</t>
+  </si>
+  <si>
+    <t>*See Build Instructions</t>
+  </si>
 </sst>
 </file>
 
@@ -785,7 +779,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,6 +973,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1357,9 +1359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1731,17 +1731,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1839,10 +1839,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1890,10 +1890,10 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1908,10 +1908,10 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1927,7 +1927,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -1974,10 +1974,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1991,10 +1991,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -2022,10 +2022,10 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -2040,7 +2040,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="12"/>
       <c r="F21" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -2054,10 +2054,10 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -2072,7 +2072,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -2099,7 +2099,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -2114,7 +2114,7 @@
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -2125,33 +2125,33 @@
     </row>
     <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E27" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F28" s="10" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E29" s="12" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F30" s="10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2161,748 +2161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.08984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="6">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="8">
-        <v>2</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA2ABC-0813-474E-AEBD-F41F9497E75F}">
-  <dimension ref="A1:I31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2921,28 +2183,754 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="6">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
         <v>74</v>
       </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="14">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="8">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="8">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA2ABC-0813-474E-AEBD-F41F9497E75F}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="C1" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -2953,10 +2941,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -2970,7 +2958,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -2978,13 +2966,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -2992,13 +2980,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -3006,13 +2994,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -3020,13 +3008,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -3034,13 +3022,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -3048,13 +3036,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H9" s="6">
         <v>3.35</v>
@@ -3065,13 +3053,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -3079,13 +3067,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -3099,7 +3087,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -3107,13 +3095,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -3121,13 +3109,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -3135,13 +3123,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -3155,7 +3143,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -3163,24 +3151,27 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
-        <v>140</v>
+      <c r="B18" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -3188,111 +3179,111 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>2</v>
+      <c r="A20" s="14">
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>1</v>
+      <c r="A23" s="8">
+        <v>3</v>
       </c>
       <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+      <c r="A24" s="1">
         <v>3</v>
       </c>
       <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26" s="8">
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -3300,27 +3291,27 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -3328,13 +3319,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -3342,27 +3333,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3394,28 +3371,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -3429,7 +3406,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -3437,13 +3414,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -3451,13 +3428,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -3465,13 +3442,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3503,28 +3480,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -3535,10 +3512,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -3552,7 +3529,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -3560,13 +3537,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -3574,13 +3551,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -3588,13 +3565,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -3602,13 +3579,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3640,60 +3617,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="14">
+      <c r="A2" s="1">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -3703,119 +3680,119 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+      <c r="C8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="15">
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
-        <v>2</v>
-      </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -3823,13 +3800,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3861,112 +3838,112 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="14">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3975,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -4027,13 +4004,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9413034-099A-4EB2-8EA0-5C0FE55E7BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB151DF5-9EB0-47A5-8145-6D358FBA228B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="192">
   <si>
     <t>Qty</t>
   </si>
@@ -426,33 +426,6 @@
   </si>
   <si>
     <t>10uH 20% Power Inductor</t>
-  </si>
-  <si>
-    <t>R4, R5, R6</t>
-  </si>
-  <si>
-    <t>Not Populated</t>
-  </si>
-  <si>
-    <t>R17, R22 For 20W Readout</t>
-  </si>
-  <si>
-    <t>R16, R18, R24, R25 For 20W Readout</t>
-  </si>
-  <si>
-    <t>R16, R18, R24, R25 For 100W Readout</t>
-  </si>
-  <si>
-    <t>R17, R22 For 100W Readout</t>
-  </si>
-  <si>
-    <t>1116 Ohm SMD 1206 Resistor</t>
-  </si>
-  <si>
-    <t>71-CRCW12061K10FKEAC</t>
-  </si>
-  <si>
-    <t>71-CRCW1206-52.3-E3</t>
   </si>
   <si>
     <t>22nH SMD 1206 Inductor</t>
@@ -769,7 +742,10 @@
     <t>652-CR1206JW-222ELF</t>
   </si>
   <si>
-    <t>*See Build Instructions</t>
+    <t>R16, R18, R24, R25</t>
+  </si>
+  <si>
+    <t>R17, R22</t>
   </si>
 </sst>
 </file>
@@ -779,7 +755,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,14 +949,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1327,7 +1295,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1356,10 +1324,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1731,17 +1695,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1757,7 +1721,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1773,7 +1737,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1789,7 +1753,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1805,7 +1769,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1839,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1874,7 +1838,7 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1890,10 +1854,10 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1908,10 +1872,10 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1927,7 +1891,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1958,7 +1922,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="13" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -1974,10 +1938,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1991,10 +1955,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="12" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -2022,10 +1986,10 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -2040,7 +2004,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="12"/>
       <c r="F21" s="10" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -2054,10 +2018,10 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="12" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -2072,7 +2036,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -2099,7 +2063,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -2114,7 +2078,7 @@
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -2125,33 +2089,33 @@
     </row>
     <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E27" s="12" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F28" s="10" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E29" s="12" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F30" s="10" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2161,10 +2125,697 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="6">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA2ABC-0813-474E-AEBD-F41F9497E75F}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2207,15 +2858,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
@@ -2223,44 +2874,44 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -2268,13 +2919,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -2282,732 +2933,6 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="6">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="14">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>196</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA2ABC-0813-474E-AEBD-F41F9497E75F}">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.08984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3112,7 +3037,7 @@
         <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
         <v>92</v>
@@ -3162,114 +3087,114 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>3</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>199</v>
+        <v>144</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="14">
-        <v>6</v>
+      <c r="A20" s="1">
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>1</v>
+      <c r="A22" s="8">
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+      <c r="A23" s="1">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25" s="8">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -3277,27 +3202,27 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+      <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -3305,13 +3230,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -3319,26 +3244,12 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3414,10 +3325,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
         <v>87</v>
@@ -3428,10 +3339,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
         <v>88</v>
@@ -3512,7 +3423,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
         <v>83</v>
@@ -3554,7 +3465,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
         <v>98</v>
@@ -3568,7 +3479,7 @@
         <v>97</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
         <v>96</v>
@@ -3595,10 +3506,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6500391-22D1-4B8B-8FA4-0C4B2D382E2C}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3649,7 +3560,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
@@ -3663,7 +3574,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
         <v>83</v>
@@ -3691,7 +3602,7 @@
         <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
         <v>92</v>
@@ -3702,13 +3613,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -3733,7 +3644,7 @@
         <v>97</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
         <v>96</v>
@@ -3747,7 +3658,7 @@
         <v>119</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
         <v>118</v>
@@ -3755,16 +3666,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" t="s">
-        <v>141</v>
+        <v>191</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -3772,40 +3683,12 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3870,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
@@ -3884,7 +3767,7 @@
         <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
         <v>77</v>
@@ -3898,7 +3781,7 @@
         <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
         <v>75</v>
@@ -3912,7 +3795,7 @@
         <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
         <v>92</v>
@@ -4007,7 +3890,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
         <v>95</v>
